--- a/notebookscc/ana_summer2021/logbooks/auxtelholologbook_2021_07_07_v3.0.xlsx
+++ b/notebookscc/ana_summer2021/logbooks/auxtelholologbook_2021_07_07_v3.0.xlsx
@@ -457,7 +457,7 @@
     <t>2021-07-08T05:14:50.080</t>
   </si>
   <si>
-    <t>/sps/lsst/groups/auxtel/data/2021/holo/quickLookExp/2021-07-07</t>
+    <t>/Users/dagoret/DATA/AuxTelData2021/holo/quickLookExp/2021-07-07</t>
   </si>
   <si>
     <t>holo4_003_RG610_HD160617_20210707_000234_quickLookExp.fits</t>

--- a/notebookscc/ana_summer2021/logbooks/auxtelholologbook_2021_07_07_v3.0.xlsx
+++ b/notebookscc/ana_summer2021/logbooks/auxtelholologbook_2021_07_07_v3.0.xlsx
@@ -1328,8 +1328,20 @@
       <c r="Q2">
         <v>3.8</v>
       </c>
+      <c r="R2">
+        <v>600</v>
+      </c>
+      <c r="S2">
+        <v>2100</v>
+      </c>
       <c r="V2" t="s">
         <v>276</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -1381,8 +1393,20 @@
       <c r="Q3">
         <v>4.4</v>
       </c>
+      <c r="R3">
+        <v>600</v>
+      </c>
+      <c r="S3">
+        <v>2100</v>
+      </c>
       <c r="V3" t="s">
         <v>276</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -1434,8 +1458,20 @@
       <c r="Q4">
         <v>4.4</v>
       </c>
+      <c r="R4">
+        <v>600</v>
+      </c>
+      <c r="S4">
+        <v>2100</v>
+      </c>
       <c r="V4" t="s">
         <v>276</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -1487,8 +1523,20 @@
       <c r="Q5">
         <v>4.4</v>
       </c>
+      <c r="R5">
+        <v>600</v>
+      </c>
+      <c r="S5">
+        <v>2100</v>
+      </c>
       <c r="V5" t="s">
         <v>276</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -1540,8 +1588,20 @@
       <c r="Q6">
         <v>4.9</v>
       </c>
+      <c r="R6">
+        <v>600</v>
+      </c>
+      <c r="S6">
+        <v>2100</v>
+      </c>
       <c r="V6" t="s">
         <v>276</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -1593,8 +1653,20 @@
       <c r="Q7">
         <v>4.9</v>
       </c>
+      <c r="R7">
+        <v>600</v>
+      </c>
+      <c r="S7">
+        <v>2100</v>
+      </c>
       <c r="V7" t="s">
         <v>276</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -1646,8 +1718,20 @@
       <c r="Q8">
         <v>4.9</v>
       </c>
+      <c r="R8">
+        <v>600</v>
+      </c>
+      <c r="S8">
+        <v>2100</v>
+      </c>
       <c r="V8" t="s">
         <v>276</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1699,8 +1783,20 @@
       <c r="Q9">
         <v>4.9</v>
       </c>
+      <c r="R9">
+        <v>600</v>
+      </c>
+      <c r="S9">
+        <v>2100</v>
+      </c>
       <c r="V9" t="s">
         <v>276</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1752,8 +1848,20 @@
       <c r="Q10">
         <v>4.9</v>
       </c>
+      <c r="R10">
+        <v>600</v>
+      </c>
+      <c r="S10">
+        <v>2100</v>
+      </c>
       <c r="V10" t="s">
         <v>276</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -1805,8 +1913,20 @@
       <c r="Q11">
         <v>4.9</v>
       </c>
+      <c r="R11">
+        <v>600</v>
+      </c>
+      <c r="S11">
+        <v>2100</v>
+      </c>
       <c r="V11" t="s">
         <v>276</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1858,8 +1978,20 @@
       <c r="Q12">
         <v>4.2</v>
       </c>
+      <c r="R12">
+        <v>1300</v>
+      </c>
+      <c r="S12">
+        <v>700</v>
+      </c>
       <c r="V12" t="s">
         <v>276</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1911,8 +2043,20 @@
       <c r="Q13">
         <v>5.2</v>
       </c>
+      <c r="R13">
+        <v>250</v>
+      </c>
+      <c r="S13">
+        <v>1800</v>
+      </c>
       <c r="V13" t="s">
         <v>276</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1964,8 +2108,20 @@
       <c r="Q14">
         <v>5.2</v>
       </c>
+      <c r="R14">
+        <v>250</v>
+      </c>
+      <c r="S14">
+        <v>1800</v>
+      </c>
       <c r="V14" t="s">
         <v>276</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -2017,8 +2173,20 @@
       <c r="Q15">
         <v>4.3</v>
       </c>
+      <c r="R15">
+        <v>250</v>
+      </c>
+      <c r="S15">
+        <v>1800</v>
+      </c>
       <c r="V15" t="s">
         <v>276</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -2070,11 +2238,23 @@
       <c r="Q16">
         <v>3.9</v>
       </c>
+      <c r="R16">
+        <v>1400</v>
+      </c>
+      <c r="S16">
+        <v>700</v>
+      </c>
       <c r="V16" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2123,11 +2303,23 @@
       <c r="Q17">
         <v>4.9</v>
       </c>
+      <c r="R17">
+        <v>1400</v>
+      </c>
+      <c r="S17">
+        <v>700</v>
+      </c>
       <c r="V17" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2176,11 +2368,23 @@
       <c r="Q18">
         <v>4.2</v>
       </c>
+      <c r="R18">
+        <v>400</v>
+      </c>
+      <c r="S18">
+        <v>1800</v>
+      </c>
       <c r="V18" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2229,11 +2433,23 @@
       <c r="Q19">
         <v>3.8</v>
       </c>
+      <c r="R19">
+        <v>400</v>
+      </c>
+      <c r="S19">
+        <v>1800</v>
+      </c>
       <c r="V19" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2282,11 +2498,23 @@
       <c r="Q20">
         <v>5</v>
       </c>
+      <c r="R20">
+        <v>400</v>
+      </c>
+      <c r="S20">
+        <v>1800</v>
+      </c>
       <c r="V20" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2335,11 +2563,23 @@
       <c r="Q21">
         <v>4.8</v>
       </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>800</v>
+      </c>
       <c r="V21" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2388,11 +2628,23 @@
       <c r="Q22">
         <v>5.2</v>
       </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>800</v>
+      </c>
       <c r="V22" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2441,11 +2693,23 @@
       <c r="Q23">
         <v>5.2</v>
       </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>800</v>
+      </c>
       <c r="V23" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2498,7 +2762,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:24">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2551,7 +2815,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:24">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2604,7 +2868,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:24">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2657,7 +2921,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:24">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2710,7 +2974,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:24">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2763,7 +3027,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:24">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2816,7 +3080,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:24">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2869,7 +3133,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:24">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4618,7 +4882,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="65" spans="1:22">
+    <row r="65" spans="1:24">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4671,7 +4935,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="66" spans="1:22">
+    <row r="66" spans="1:24">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4724,7 +4988,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="67" spans="1:22">
+    <row r="67" spans="1:24">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4777,7 +5041,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="68" spans="1:22">
+    <row r="68" spans="1:24">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4830,7 +5094,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="69" spans="1:22">
+    <row r="69" spans="1:24">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4883,7 +5147,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="70" spans="1:22">
+    <row r="70" spans="1:24">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4936,7 +5200,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="71" spans="1:22">
+    <row r="71" spans="1:24">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4989,7 +5253,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="72" spans="1:22">
+    <row r="72" spans="1:24">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5042,7 +5306,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="73" spans="1:22">
+    <row r="73" spans="1:24">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5095,7 +5359,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="74" spans="1:22">
+    <row r="74" spans="1:24">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5148,7 +5412,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="75" spans="1:22">
+    <row r="75" spans="1:24">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5201,7 +5465,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="76" spans="1:22">
+    <row r="76" spans="1:24">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5254,7 +5518,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="77" spans="1:22">
+    <row r="77" spans="1:24">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5307,7 +5571,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="78" spans="1:22">
+    <row r="78" spans="1:24">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5356,11 +5620,23 @@
       <c r="Q78">
         <v>6.7</v>
       </c>
+      <c r="R78">
+        <v>500</v>
+      </c>
+      <c r="S78">
+        <v>2100</v>
+      </c>
       <c r="V78" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="79" spans="1:22">
+      <c r="W78">
+        <v>1</v>
+      </c>
+      <c r="X78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5409,11 +5685,23 @@
       <c r="Q79">
         <v>7.2</v>
       </c>
+      <c r="R79">
+        <v>500</v>
+      </c>
+      <c r="S79">
+        <v>2100</v>
+      </c>
       <c r="V79" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="80" spans="1:22">
+      <c r="W79">
+        <v>1</v>
+      </c>
+      <c r="X79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -5462,11 +5750,23 @@
       <c r="Q80">
         <v>7.1</v>
       </c>
+      <c r="R80">
+        <v>500</v>
+      </c>
+      <c r="S80">
+        <v>1800</v>
+      </c>
       <c r="V80" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="81" spans="1:22">
+      <c r="W80">
+        <v>1</v>
+      </c>
+      <c r="X80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -5515,11 +5815,23 @@
       <c r="Q81">
         <v>7.1</v>
       </c>
+      <c r="R81">
+        <v>500</v>
+      </c>
+      <c r="S81">
+        <v>1800</v>
+      </c>
       <c r="V81" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="82" spans="1:22">
+      <c r="W81">
+        <v>1</v>
+      </c>
+      <c r="X81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -5568,11 +5880,23 @@
       <c r="Q82">
         <v>7</v>
       </c>
+      <c r="R82">
+        <v>500</v>
+      </c>
+      <c r="S82">
+        <v>1700</v>
+      </c>
       <c r="V82" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="83" spans="1:22">
+      <c r="W82">
+        <v>1</v>
+      </c>
+      <c r="X82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5621,11 +5945,23 @@
       <c r="Q83">
         <v>7</v>
       </c>
+      <c r="R83">
+        <v>500</v>
+      </c>
+      <c r="S83">
+        <v>1600</v>
+      </c>
       <c r="V83" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="84" spans="1:22">
+      <c r="W83">
+        <v>1</v>
+      </c>
+      <c r="X83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -5674,11 +6010,23 @@
       <c r="Q84">
         <v>6.6</v>
       </c>
+      <c r="R84">
+        <v>500</v>
+      </c>
+      <c r="S84">
+        <v>1500</v>
+      </c>
       <c r="V84" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="85" spans="1:22">
+      <c r="W84">
+        <v>1</v>
+      </c>
+      <c r="X84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5727,11 +6075,23 @@
       <c r="Q85">
         <v>6.6</v>
       </c>
+      <c r="R85">
+        <v>400</v>
+      </c>
+      <c r="S85">
+        <v>2200</v>
+      </c>
       <c r="V85" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="86" spans="1:22">
+      <c r="W85">
+        <v>1</v>
+      </c>
+      <c r="X85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5780,11 +6140,23 @@
       <c r="Q86">
         <v>5.4</v>
       </c>
+      <c r="R86">
+        <v>400</v>
+      </c>
+      <c r="S86">
+        <v>2100</v>
+      </c>
       <c r="V86" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="87" spans="1:22">
+      <c r="W86">
+        <v>1</v>
+      </c>
+      <c r="X86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5833,11 +6205,23 @@
       <c r="Q87">
         <v>5.4</v>
       </c>
+      <c r="R87">
+        <v>350</v>
+      </c>
+      <c r="S87">
+        <v>1860</v>
+      </c>
       <c r="V87" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="88" spans="1:22">
+      <c r="W87">
+        <v>1</v>
+      </c>
+      <c r="X87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5886,11 +6270,23 @@
       <c r="Q88">
         <v>6.6</v>
       </c>
+      <c r="R88">
+        <v>400</v>
+      </c>
+      <c r="S88">
+        <v>1800</v>
+      </c>
       <c r="V88" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="89" spans="1:22">
+      <c r="W88">
+        <v>1</v>
+      </c>
+      <c r="X88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5939,11 +6335,23 @@
       <c r="Q89">
         <v>6.6</v>
       </c>
+      <c r="R89">
+        <v>400</v>
+      </c>
+      <c r="S89">
+        <v>1750</v>
+      </c>
       <c r="V89" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="90" spans="1:22">
+      <c r="W89">
+        <v>1</v>
+      </c>
+      <c r="X89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -5992,11 +6400,23 @@
       <c r="Q90">
         <v>6.9</v>
       </c>
+      <c r="R90">
+        <v>400</v>
+      </c>
+      <c r="S90">
+        <v>1750</v>
+      </c>
       <c r="V90" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="91" spans="1:22">
+      <c r="W90">
+        <v>1</v>
+      </c>
+      <c r="X90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -6045,11 +6465,23 @@
       <c r="Q91">
         <v>6.9</v>
       </c>
+      <c r="R91">
+        <v>400</v>
+      </c>
+      <c r="S91">
+        <v>1600</v>
+      </c>
       <c r="V91" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="92" spans="1:22">
+      <c r="W91">
+        <v>1</v>
+      </c>
+      <c r="X91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -6098,11 +6530,23 @@
       <c r="Q92">
         <v>5.9</v>
       </c>
+      <c r="R92">
+        <v>300</v>
+      </c>
+      <c r="S92">
+        <v>2200</v>
+      </c>
       <c r="V92" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="93" spans="1:22">
+      <c r="W92">
+        <v>1</v>
+      </c>
+      <c r="X92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -6155,7 +6599,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="94" spans="1:22">
+    <row r="94" spans="1:24">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -6208,7 +6652,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="95" spans="1:22">
+    <row r="95" spans="1:24">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -6261,7 +6705,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="96" spans="1:22">
+    <row r="96" spans="1:24">
       <c r="A96" s="1">
         <v>94</v>
       </c>

--- a/notebookscc/ana_summer2021/logbooks/auxtelholologbook_2021_07_07_v3.0.xlsx
+++ b/notebookscc/ana_summer2021/logbooks/auxtelholologbook_2021_07_07_v3.0.xlsx
@@ -6595,8 +6595,20 @@
       <c r="Q93">
         <v>6.8</v>
       </c>
+      <c r="R93">
+        <v>300</v>
+      </c>
+      <c r="S93">
+        <v>2100</v>
+      </c>
       <c r="V93" t="s">
         <v>276</v>
+      </c>
+      <c r="W93">
+        <v>1</v>
+      </c>
+      <c r="X93">
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:24">
@@ -6648,8 +6660,20 @@
       <c r="Q94">
         <v>6.8</v>
       </c>
+      <c r="R94">
+        <v>350</v>
+      </c>
+      <c r="S94">
+        <v>2000</v>
+      </c>
       <c r="V94" t="s">
         <v>276</v>
+      </c>
+      <c r="W94">
+        <v>1</v>
+      </c>
+      <c r="X94">
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:24">
@@ -6701,8 +6725,20 @@
       <c r="Q95">
         <v>6.8</v>
       </c>
+      <c r="R95">
+        <v>350</v>
+      </c>
+      <c r="S95">
+        <v>1800</v>
+      </c>
       <c r="V95" t="s">
         <v>276</v>
+      </c>
+      <c r="W95">
+        <v>1</v>
+      </c>
+      <c r="X95">
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:24">
@@ -6754,11 +6790,23 @@
       <c r="Q96">
         <v>6.8</v>
       </c>
+      <c r="R96">
+        <v>350</v>
+      </c>
+      <c r="S96">
+        <v>1750</v>
+      </c>
       <c r="V96" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="97" spans="1:22">
+      <c r="W96">
+        <v>1</v>
+      </c>
+      <c r="X96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -6807,11 +6855,23 @@
       <c r="Q97">
         <v>6.8</v>
       </c>
+      <c r="R97">
+        <v>350</v>
+      </c>
+      <c r="S97">
+        <v>1700</v>
+      </c>
       <c r="V97" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="98" spans="1:22">
+      <c r="W97">
+        <v>1</v>
+      </c>
+      <c r="X97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -6864,7 +6924,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="99" spans="1:22">
+    <row r="99" spans="1:24">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -6917,7 +6977,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="100" spans="1:22">
+    <row r="100" spans="1:24">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -6970,7 +7030,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="101" spans="1:22">
+    <row r="101" spans="1:24">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -7023,7 +7083,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="102" spans="1:22">
+    <row r="102" spans="1:24">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -7076,7 +7136,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="103" spans="1:22">
+    <row r="103" spans="1:24">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -7129,7 +7189,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="104" spans="1:22">
+    <row r="104" spans="1:24">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -7182,7 +7242,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="105" spans="1:22">
+    <row r="105" spans="1:24">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -7235,7 +7295,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="106" spans="1:22">
+    <row r="106" spans="1:24">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -7288,7 +7348,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="107" spans="1:22">
+    <row r="107" spans="1:24">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -7341,7 +7401,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="108" spans="1:22">
+    <row r="108" spans="1:24">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -7394,7 +7454,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="109" spans="1:22">
+    <row r="109" spans="1:24">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -7447,7 +7507,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="110" spans="1:22">
+    <row r="110" spans="1:24">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -7500,7 +7560,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="111" spans="1:22">
+    <row r="111" spans="1:24">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -7553,7 +7613,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="112" spans="1:22">
+    <row r="112" spans="1:24">
       <c r="A112" s="1">
         <v>110</v>
       </c>

--- a/notebookscc/ana_summer2021/logbooks/auxtelholologbook_2021_07_07_v3.0.xlsx
+++ b/notebookscc/ana_summer2021/logbooks/auxtelholologbook_2021_07_07_v3.0.xlsx
@@ -457,7 +457,7 @@
     <t>2021-07-08T05:14:50.080</t>
   </si>
   <si>
-    <t>/Users/dagoret/DATA/AuxTelData2021/holo/quickLookExp/2021-07-07</t>
+    <t>/sps/lsst/groups/auxtel/data/2021/holo/quickLookExp/2021-07-07</t>
   </si>
   <si>
     <t>holo4_003_RG610_HD160617_20210707_000234_quickLookExp.fits</t>
@@ -6920,8 +6920,20 @@
       <c r="Q98">
         <v>6.8</v>
       </c>
+      <c r="R98">
+        <v>300</v>
+      </c>
+      <c r="S98">
+        <v>1600</v>
+      </c>
       <c r="V98" t="s">
         <v>276</v>
+      </c>
+      <c r="W98">
+        <v>1</v>
+      </c>
+      <c r="X98">
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:24">
